--- a/evaluation_run_results_10_09.xlsx
+++ b/evaluation_run_results_10_09.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://atos365-my.sharepoint.com/personal/maximilian_brenke_atos_net/Documents/Atos/Java,_Python_Groovy_more/Python/Excel Evaluation Tool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="11_4CE1D39651E3994552751B7D5165510C6CCA1B07" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6CD2A0F1-4734-4A0F-ACB1-FC72F6D27BB7}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="11_4CE1D39651E3994552751B7D5165510C6CCA1B07" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E6588AAA-F772-4FF6-B232-DF1D646DC808}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="562" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Evaluation" sheetId="1" r:id="rId1"/>
@@ -4996,11 +4996,13 @@
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="18"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -5400,11 +5402,16 @@
   <dimension ref="A1:AW771"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A316" sqref="A316"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="2" max="2" width="15.44140625" customWidth="1"/>
+    <col min="3" max="3" width="26.33203125" customWidth="1"/>
+    <col min="7" max="7" width="25.6640625" customWidth="1"/>
+    <col min="8" max="8" width="39" customWidth="1"/>
+    <col min="11" max="11" width="13.109375" customWidth="1"/>
     <col min="13" max="20" width="8.88671875" style="10" outlineLevel="1"/>
     <col min="35" max="37" width="8.88671875" style="13"/>
     <col min="48" max="48" width="26.6640625" bestFit="1" customWidth="1"/>
